--- a/excel_files/6.1.1.xlsx
+++ b/excel_files/6.1.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\ПоказателиЦУР для Платформы\Глобальные показатели ЦУР\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\Показатели ЦУР для Платформы\Глобальные показатели ЦУР\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -303,7 +303,7 @@
     <xf numFmtId="38" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="40" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -342,6 +342,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -636,9 +639,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -646,7 +651,7 @@
     <col min="2" max="3" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="57.75" customHeight="1">
+    <row r="1" spans="1:13" ht="57.75" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -657,7 +662,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="14.25" customHeight="1" thickBot="1">
+    <row r="2" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
       <c r="A2" s="8"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -670,8 +675,9 @@
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
-    </row>
-    <row r="3" spans="1:12" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="M2" s="8"/>
+    </row>
+    <row r="3" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A3" s="14" t="s">
         <v>15</v>
       </c>
@@ -708,8 +714,11 @@
       <c r="L3" s="6">
         <v>2019</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1">
+      <c r="M3" s="6">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -746,8 +755,11 @@
       <c r="L4" s="10">
         <v>94.060698930780831</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4" s="15">
+        <v>94.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="3" t="s">
         <v>37</v>
       </c>
@@ -784,8 +796,11 @@
       <c r="L5" s="10">
         <v>99.422592371590184</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5" s="10">
+        <v>99.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="3" t="s">
         <v>39</v>
       </c>
@@ -822,8 +837,11 @@
       <c r="L6" s="10">
         <v>91.081091934136921</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6" s="10">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -860,8 +878,11 @@
       <c r="L7" s="11">
         <v>81.026394671471252</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7" s="11">
+        <v>86.886172668979881</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -898,8 +919,11 @@
       <c r="L8" s="11">
         <v>88.710949514389114</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8" s="11">
+        <v>86.955790296225956</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -936,8 +960,11 @@
       <c r="L9" s="11">
         <v>96.284685799059346</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9" s="11">
+        <v>96.29195112324031</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -974,8 +1001,11 @@
       <c r="L10" s="11">
         <v>96.816529188145878</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10" s="11">
+        <v>97.849780305474511</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -1012,8 +1042,11 @@
       <c r="L11" s="11">
         <v>92.436111758828048</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11" s="11">
+        <v>90.676703333930902</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -1050,8 +1083,11 @@
       <c r="L12" s="11">
         <v>99.291965888689404</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12" s="11">
+        <v>99.675929342188979</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -1088,8 +1124,11 @@
       <c r="L13" s="11">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -1126,8 +1165,11 @@
       <c r="L14" s="11">
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" thickBot="1">
+      <c r="M14" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" thickBot="1">
       <c r="A15" s="9" t="s">
         <v>26</v>
       </c>
@@ -1163,6 +1205,9 @@
       </c>
       <c r="L15" s="13">
         <v>97.757015326528645</v>
+      </c>
+      <c r="M15" s="13">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/excel_files/6.1.1.xlsx
+++ b/excel_files/6.1.1.xlsx
@@ -639,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -651,7 +651,7 @@
     <col min="2" max="3" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="57.75" customHeight="1">
+    <row r="1" spans="1:14" ht="57.75" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -662,7 +662,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
+    <row r="2" spans="1:14" ht="14.25" customHeight="1" thickBot="1">
       <c r="A2" s="8"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -676,8 +676,9 @@
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
-    </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="N2" s="8"/>
+    </row>
+    <row r="3" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A3" s="14" t="s">
         <v>15</v>
       </c>
@@ -717,8 +718,11 @@
       <c r="M3" s="6">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1">
+      <c r="N3" s="6">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -728,38 +732,41 @@
       <c r="C4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="15">
         <v>92.354934563774719</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="15">
         <v>93.231050507961669</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="15">
         <v>89.6</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="15">
         <v>88.946005791294084</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="15">
         <v>89.136139540845619</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="15">
         <v>89.94940118432234</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="15">
         <v>91.106719367588923</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="15">
         <v>91.811084108406419</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="15">
         <v>94.060698930780831</v>
       </c>
       <c r="M4" s="15">
         <v>94.1</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="15">
+        <v>95.134712433469176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="3" t="s">
         <v>37</v>
       </c>
@@ -799,8 +806,11 @@
       <c r="M5" s="10">
         <v>99.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5" s="10">
+        <v>99.705541665880986</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="3" t="s">
         <v>39</v>
       </c>
@@ -840,8 +850,11 @@
       <c r="M6" s="10">
         <v>91</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6" s="10">
+        <v>92.425193326577897</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -881,8 +894,11 @@
       <c r="M7" s="11">
         <v>86.886172668979881</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="10">
+        <v>88.209991167538519</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -922,8 +938,11 @@
       <c r="M8" s="11">
         <v>86.955790296225956</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8" s="10">
+        <v>92.225038985690773</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -963,8 +982,11 @@
       <c r="M9" s="11">
         <v>96.29195112324031</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="10">
+        <v>96.801032063987265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -1004,8 +1026,11 @@
       <c r="M10" s="11">
         <v>97.849780305474511</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="10">
+        <v>97.660491031729507</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -1045,8 +1070,11 @@
       <c r="M11" s="11">
         <v>90.676703333930902</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="10">
+        <v>90.23262877800066</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -1086,8 +1114,11 @@
       <c r="M12" s="11">
         <v>99.675929342188979</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="10">
+        <v>99.653994395099105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -1127,8 +1158,11 @@
       <c r="M13" s="11">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -1168,8 +1202,11 @@
       <c r="M14" s="11">
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1">
+      <c r="N14" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" thickBot="1">
       <c r="A15" s="9" t="s">
         <v>26</v>
       </c>
@@ -1209,9 +1246,12 @@
       <c r="M15" s="13">
         <v>100</v>
       </c>
+      <c r="N15" s="13">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/excel_files/6.1.1.xlsx
+++ b/excel_files/6.1.1.xlsx
@@ -303,7 +303,7 @@
     <xf numFmtId="38" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="40" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -344,6 +344,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -639,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -651,7 +657,7 @@
     <col min="2" max="3" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="57.75" customHeight="1">
+    <row r="1" spans="1:15" ht="57.75" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -662,7 +668,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="14.25" customHeight="1" thickBot="1">
+    <row r="2" spans="1:15" ht="14.25" customHeight="1" thickBot="1">
       <c r="A2" s="8"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -677,8 +683,9 @@
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
-    </row>
-    <row r="3" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="O2" s="8"/>
+    </row>
+    <row r="3" spans="1:15" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A3" s="14" t="s">
         <v>15</v>
       </c>
@@ -721,8 +728,11 @@
       <c r="N3" s="6">
         <v>2021</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1">
+      <c r="O3" s="6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -765,8 +775,11 @@
       <c r="N4" s="15">
         <v>95.134712433469176</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4" s="16">
+        <v>96.345513960706299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="3" t="s">
         <v>37</v>
       </c>
@@ -809,8 +822,11 @@
       <c r="N5" s="10">
         <v>99.705541665880986</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5" s="17">
+        <v>99.646905185978142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="3" t="s">
         <v>39</v>
       </c>
@@ -853,8 +869,11 @@
       <c r="N6" s="10">
         <v>92.425193326577897</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6" s="17">
+        <v>94.429993069436605</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -897,8 +916,11 @@
       <c r="N7" s="10">
         <v>88.209991167538519</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7" s="17">
+        <v>88.286387066773813</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -941,8 +963,11 @@
       <c r="N8" s="10">
         <v>92.225038985690773</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8" s="17">
+        <v>93.885244420521602</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -985,8 +1010,11 @@
       <c r="N9" s="10">
         <v>96.801032063987265</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9" s="17">
+        <v>98.153167726175582</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -1029,8 +1057,11 @@
       <c r="N10" s="10">
         <v>97.660491031729507</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10" s="17">
+        <v>97.951019527503291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -1073,8 +1104,11 @@
       <c r="N11" s="10">
         <v>90.23262877800066</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11" s="17">
+        <v>93.640014938442292</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -1117,8 +1151,11 @@
       <c r="N12" s="10">
         <v>99.653994395099105</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12" s="17">
+        <v>99.643271453928278</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -1161,8 +1198,11 @@
       <c r="N13" s="10">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -1205,8 +1245,11 @@
       <c r="N14" s="10">
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1">
+      <c r="O14" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" thickBot="1">
       <c r="A15" s="9" t="s">
         <v>26</v>
       </c>
@@ -1247,6 +1290,9 @@
         <v>100</v>
       </c>
       <c r="N15" s="13">
+        <v>100</v>
+      </c>
+      <c r="O15" s="13">
         <v>100</v>
       </c>
     </row>
